--- a/data/ccg/ccg-Q2-2017.xlsx
+++ b/data/ccg/ccg-Q2-2017.xlsx
@@ -92,10 +92,10 @@
     <t>23.1.2.OTC</t>
   </si>
   <si>
+    <t>23.1.2.ETD</t>
+  </si>
+  <si>
     <t>23.2.1.OTC</t>
-  </si>
-  <si>
-    <t>23.1.2.ETD</t>
   </si>
   <si>
     <t>23.2.1.ETD</t>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>75115072580</v>
       </c>
       <c r="AB2" t="n">
-        <v>75115072580</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>28117183880</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1837503922</v>
       </c>
       <c r="AB3" t="n">
-        <v>1837503922</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>511740559695</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>6816990863</v>
       </c>
       <c r="AB4" t="n">
-        <v>6816990863</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>133534968</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>994152</v>
       </c>
       <c r="AB5" t="n">
-        <v>994152</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>1206500</v>
